--- a/Data/metadaten_grafiken_kantonal.xlsx
+++ b/Data/metadaten_grafiken_kantonal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>Typ</t>
   </si>
@@ -38,9 +38,27 @@
     <t>Script</t>
   </si>
   <si>
+    <t>Kantonale Vorlage</t>
+  </si>
+  <si>
     <t>Uebersicht Kanton</t>
   </si>
   <si>
+    <t>LU_Lammschlucht</t>
+  </si>
+  <si>
+    <t>SH_OEV</t>
+  </si>
+  <si>
+    <t>AG_Arbeit</t>
+  </si>
+  <si>
+    <t>AG_Blitzinitiative</t>
+  </si>
+  <si>
+    <t>GE_salaire_minimum</t>
+  </si>
+  <si>
     <t>LU</t>
   </si>
   <si>
@@ -50,6 +68,9 @@
     <t>SO</t>
   </si>
   <si>
+    <t>BL</t>
+  </si>
+  <si>
     <t>SH</t>
   </si>
   <si>
@@ -62,6 +83,24 @@
     <t>TI</t>
   </si>
   <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>LU: Ausbau der Kantonsstrasse K 36 durch die Lammschlucht im Entlebuch</t>
+  </si>
+  <si>
+    <t>SH: Änderung des Gesetzes über die Förderung des öffentlichen Verkehrs</t>
+  </si>
+  <si>
+    <t>AG: Volksinitiative "Arbeit muss sich lohnen!"</t>
+  </si>
+  <si>
+    <t>AG: Volksinitiative "Blitzerabzocke stoppen!"</t>
+  </si>
+  <si>
+    <t>GE: Loi modifiant la loi sur l'inspection et les relations du travail (LIRT)</t>
+  </si>
+  <si>
     <t>LU: Kantonale Abstimmungen vom 8. März 2026</t>
   </si>
   <si>
@@ -71,6 +110,9 @@
     <t>SO: Kantonale Abstimmungen vom 8. März 2026</t>
   </si>
   <si>
+    <t>BL: Kantonale Abstimmungen vom 8. März 2026</t>
+  </si>
+  <si>
     <t>SH: Kantonale Abstimmungen vom 8. März 2026</t>
   </si>
   <si>
@@ -83,94 +125,184 @@
     <t>TI: Votazione cantonale del 8 marzo 2026</t>
   </si>
   <si>
+    <t>GE: Votations cantonales du 8 mars 2026</t>
+  </si>
+  <si>
     <t>de-DE</t>
   </si>
   <si>
+    <t>fr-CH</t>
+  </si>
+  <si>
     <t>it-CH</t>
   </si>
   <si>
-    <t>SiY4a</t>
-  </si>
-  <si>
-    <t>qQSTx</t>
-  </si>
-  <si>
-    <t>JMMqn</t>
-  </si>
-  <si>
-    <t>zPJo4</t>
-  </si>
-  <si>
-    <t>dRHri</t>
-  </si>
-  <si>
-    <t>lMqA7</t>
-  </si>
-  <si>
-    <t>pU3OV</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/SiY4a/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/qQSTx/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/JMMqn/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/zPJo4/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/dRHri/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/lMqA7/1/</t>
-  </si>
-  <si>
-    <t>https://datawrapper.dwcdn.net/pU3OV/1/</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="LU: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-SiY4a" src="https://datawrapper.dwcdn.net/SiY4a/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="UR: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-qQSTx" src="https://datawrapper.dwcdn.net/qQSTx/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="SO: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-JMMqn" src="https://datawrapper.dwcdn.net/JMMqn/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="SH: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-zPJo4" src="https://datawrapper.dwcdn.net/zPJo4/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="SG: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-dRHri" src="https://datawrapper.dwcdn.net/dRHri/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="AG: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-lMqA7" src="https://datawrapper.dwcdn.net/lMqA7/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="TI: Votazione cantonale del 8 marzo 2026" aria-label="Barre impilate" id="datawrapper-chart-pU3OV" src="https://datawrapper.dwcdn.net/pU3OV/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-SiY4a"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/SiY4a/embed.js" charset="utf-8" data-target="#datawrapper-vis-SiY4a"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/SiY4a/full.png?unq=keystone-sda" alt="LU: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-qQSTx"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qQSTx/embed.js" charset="utf-8" data-target="#datawrapper-vis-qQSTx"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qQSTx/full.png?unq=keystone-sda" alt="UR: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-JMMqn"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/JMMqn/embed.js" charset="utf-8" data-target="#datawrapper-vis-JMMqn"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/JMMqn/full.png?unq=keystone-sda" alt="SO: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-zPJo4"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/zPJo4/embed.js" charset="utf-8" data-target="#datawrapper-vis-zPJo4"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/zPJo4/full.png?unq=keystone-sda" alt="SH: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-dRHri"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/dRHri/embed.js" charset="utf-8" data-target="#datawrapper-vis-dRHri"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/dRHri/full.png?unq=keystone-sda" alt="SG: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-lMqA7"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/lMqA7/embed.js" charset="utf-8" data-target="#datawrapper-vis-lMqA7"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/lMqA7/full.png?unq=keystone-sda" alt="AG: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-pU3OV"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pU3OV/embed.js" charset="utf-8" data-target="#datawrapper-vis-pU3OV"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pU3OV/full.png?unq=keystone-sda" alt="TI: Votazione cantonale del 8 marzo 2026 (Barre impilate)" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>cgd8w</t>
+  </si>
+  <si>
+    <t>p4Y35</t>
+  </si>
+  <si>
+    <t>LP7wL</t>
+  </si>
+  <si>
+    <t>P59av</t>
+  </si>
+  <si>
+    <t>0yei7</t>
+  </si>
+  <si>
+    <t>jLs2r</t>
+  </si>
+  <si>
+    <t>cLR2q</t>
+  </si>
+  <si>
+    <t>V8LZd</t>
+  </si>
+  <si>
+    <t>Rrq7d</t>
+  </si>
+  <si>
+    <t>J7nqU</t>
+  </si>
+  <si>
+    <t>5IKNG</t>
+  </si>
+  <si>
+    <t>aJWYN</t>
+  </si>
+  <si>
+    <t>se2jw</t>
+  </si>
+  <si>
+    <t>5y5iE</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/cgd8w/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/p4Y35/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/LP7wL/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/P59av/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/0yei7/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/jLs2r/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/cLR2q/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/V8LZd/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Rrq7d/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/J7nqU/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/5IKNG/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/aJWYN/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/se2jw/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/5y5iE/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="LU: Ausbau der Kantonsstrasse K 36 durch die Lammschlucht im Entlebuch" aria-label="Choroplethen-Karte" id="datawrapper-chart-cgd8w" src="https://datawrapper.dwcdn.net/cgd8w/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SH: Änderung des Gesetzes über die Förderung des öffentlichen Verkehrs" aria-label="Choroplethen-Karte" id="datawrapper-chart-p4Y35" src="https://datawrapper.dwcdn.net/p4Y35/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="AG: Volksinitiative &amp;quot;Arbeit muss sich lohnen!&amp;quot;" aria-label="Choroplethen-Karte" id="datawrapper-chart-LP7wL" src="https://datawrapper.dwcdn.net/LP7wL/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="AG: Volksinitiative &amp;quot;Blitzerabzocke stoppen!&amp;quot;" aria-label="Choroplethen-Karte" id="datawrapper-chart-P59av" src="https://datawrapper.dwcdn.net/P59av/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GE: Loi modifiant la loi sur l'inspection et les relations du travail (LIRT)" aria-label="Carte choroplèthe" id="datawrapper-chart-0yei7" src="https://datawrapper.dwcdn.net/0yei7/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="LU: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-jLs2r" src="https://datawrapper.dwcdn.net/jLs2r/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="UR: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-cLR2q" src="https://datawrapper.dwcdn.net/cLR2q/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SO: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-V8LZd" src="https://datawrapper.dwcdn.net/V8LZd/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BL: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-Rrq7d" src="https://datawrapper.dwcdn.net/Rrq7d/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SH: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-J7nqU" src="https://datawrapper.dwcdn.net/J7nqU/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SG: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-5IKNG" src="https://datawrapper.dwcdn.net/5IKNG/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="AG: Kantonale Abstimmungen vom 8. März 2026" aria-label="Balken (gestapelt)" id="datawrapper-chart-aJWYN" src="https://datawrapper.dwcdn.net/aJWYN/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="TI: Votazione cantonale del 8 marzo 2026" aria-label="Barre impilate" id="datawrapper-chart-se2jw" src="https://datawrapper.dwcdn.net/se2jw/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GE: Votations cantonales du 8 mars 2026" aria-label="Barres empilées" id="datawrapper-chart-5y5iE" src="https://datawrapper.dwcdn.net/5y5iE/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;window.addEventListener("message",function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r,i=0;r=e[i];i++)if(r.contentWindow===a.source){var d=a.data["datawrapper-height"][t]+"px";r.style.height=d}}});&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-cgd8w"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/cgd8w/embed.js" charset="utf-8" data-target="#datawrapper-vis-cgd8w"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/cgd8w/full.png?unq=keystone-sda" alt="LU: Ausbau der Kantonsstrasse K 36 durch die Lammschlucht im Entlebuch (Choroplethen-Karte)" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-p4Y35"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/p4Y35/embed.js" charset="utf-8" data-target="#datawrapper-vis-p4Y35"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/p4Y35/full.png?unq=keystone-sda" alt="SH: Änderung des Gesetzes über die Förderung des öffentlichen Verkehrs (Choroplethen-Karte)" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-LP7wL"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/LP7wL/embed.js" charset="utf-8" data-target="#datawrapper-vis-LP7wL"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/LP7wL/full.png?unq=keystone-sda" alt="AG: Volksinitiative &amp;quot;Arbeit muss sich lohnen!&amp;quot; (Choroplethen-Karte)" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-P59av"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/P59av/embed.js" charset="utf-8" data-target="#datawrapper-vis-P59av"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/P59av/full.png?unq=keystone-sda" alt="AG: Volksinitiative &amp;quot;Blitzerabzocke stoppen!&amp;quot; (Choroplethen-Karte)" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-0yei7"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/0yei7/embed.js" charset="utf-8" data-target="#datawrapper-vis-0yei7"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/0yei7/full.png?unq=keystone-sda" alt="GE: Loi modifiant la loi sur l'inspection et les relations du travail (LIRT) (Carte choroplèthe)" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-jLs2r"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/jLs2r/embed.js" charset="utf-8" data-target="#datawrapper-vis-jLs2r"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/jLs2r/full.png?unq=keystone-sda" alt="LU: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-cLR2q"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/cLR2q/embed.js" charset="utf-8" data-target="#datawrapper-vis-cLR2q"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/cLR2q/full.png?unq=keystone-sda" alt="UR: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-V8LZd"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/V8LZd/embed.js" charset="utf-8" data-target="#datawrapper-vis-V8LZd"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/V8LZd/full.png?unq=keystone-sda" alt="SO: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-Rrq7d"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Rrq7d/embed.js" charset="utf-8" data-target="#datawrapper-vis-Rrq7d"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Rrq7d/full.png?unq=keystone-sda" alt="BL: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-J7nqU"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/J7nqU/embed.js" charset="utf-8" data-target="#datawrapper-vis-J7nqU"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/J7nqU/full.png?unq=keystone-sda" alt="SH: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-5IKNG"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5IKNG/embed.js" charset="utf-8" data-target="#datawrapper-vis-5IKNG"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5IKNG/full.png?unq=keystone-sda" alt="SG: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-aJWYN"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/aJWYN/embed.js" charset="utf-8" data-target="#datawrapper-vis-aJWYN"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/aJWYN/full.png?unq=keystone-sda" alt="AG: Kantonale Abstimmungen vom 8. März 2026 (Balken (gestapelt))" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-se2jw"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/se2jw/embed.js" charset="utf-8" data-target="#datawrapper-vis-se2jw"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/se2jw/full.png?unq=keystone-sda" alt="TI: Votazione cantonale del 8 marzo 2026 (Barre impilate)" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:452px" id="datawrapper-vis-5y5iE"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5y5iE/embed.js" charset="utf-8" data-target="#datawrapper-vis-5y5iE"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5y5iE/full.png?unq=keystone-sda" alt="GE: Votations cantonales du 8 mars 2026 (Barres empilées)" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -252,25 +384,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -278,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -304,25 +436,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -330,25 +462,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -356,77 +488,259 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
